--- a/arknights - 完成 (1).xlsx
+++ b/arknights - 完成 (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27720"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oitast-my.sharepoint.com/personal/omzh220247_st_oita-ed_jp/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9168CCA7-73F5-4040-AC22-4EDD9AF75E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D84FCD71-D0B2-4C28-901F-BFF2833F6187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="キャラクター一覧" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,158 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="14">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="7"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="8"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="9"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="10"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="11"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="12"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="13"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="14">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
+    <bk>
+      <rc t="1" v="3"/>
+    </bk>
+    <bk>
+      <rc t="1" v="4"/>
+    </bk>
+    <bk>
+      <rc t="1" v="5"/>
+    </bk>
+    <bk>
+      <rc t="1" v="6"/>
+    </bk>
+    <bk>
+      <rc t="1" v="7"/>
+    </bk>
+    <bk>
+      <rc t="1" v="8"/>
+    </bk>
+    <bk>
+      <rc t="1" v="9"/>
+    </bk>
+    <bk>
+      <rc t="1" v="10"/>
+    </bk>
+    <bk>
+      <rc t="1" v="11"/>
+    </bk>
+    <bk>
+      <rc t="1" v="12"/>
+    </bk>
+    <bk>
+      <rc t="1" v="13"/>
+    </bk>
+  </valueMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1849,7 +2001,6 @@
   </si>
   <si>
     <t>ウインドフリット</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>工匠</t>
@@ -3196,7 +3347,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ジュナー</t>
+    <t>ジュナ―</t>
   </si>
   <si>
     <t>攻守兼備:攻撃力+7%、防御力+7%</t>
@@ -6672,7 +6823,6 @@
   </si>
   <si>
     <t>炎獄ラヴァ</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>呪術戦線:初回配置後自身のSP+30回復。配置中、自身以外の味方【術師】のストックSP+4</t>
@@ -6685,7 +6835,6 @@
   </si>
   <si>
     <t>焔影リード</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>灼けつく炎:敵にダメージを与えた際、30%の確率で対象に6秒間攻撃力-20%、30%の【対術脆弱】効果をもたらす灼痕を付与する（重複不可）</t>
@@ -6701,7 +6850,6 @@
   </si>
   <si>
     <t>寒芒クルース</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>的中:攻撃時、20%の確率でその攻撃のみ攻撃力が150%(+10%)に上昇し、敵を0.2秒間スタンさせる</t>
@@ -6714,7 +6862,6 @@
   </si>
   <si>
     <t>帰溟スペクター</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>内なる抱擁:&lt;身替り&gt;状態時、周囲の敵の移動速度-40%、1秒ごとに攻撃力の40%の術ダメージを与える</t>
@@ -6824,7 +6971,6 @@
   </si>
   <si>
     <t>承曦グレイ</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ライトニングチェーン:攻撃時、40%の確率で攻撃対象を2秒間足止めする</t>
@@ -6890,7 +7036,6 @@
   </si>
   <si>
     <t>濯塵ハイビスカス</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>朝瞬の花:攻撃時、対象に12%の【対術脆弱】効果を5秒間付与する</t>
@@ -7099,8 +7244,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ニアール</t>
-    <phoneticPr fontId="1"/>
+    <t>二アール</t>
   </si>
   <si>
     <t>ペガサスの加護:配置中、味方全員のHP治療効果+10%</t>
@@ -7416,7 +7560,6 @@
   </si>
   <si>
     <t>琳琅スワイヤー</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>経済循環:スキル発動時、コイン（スキル発動時に消費）を1枚獲得。スキル発動中に特性によるコスト消費時、コインを1枚獲得し、自身の攻撃力+4%（最大8回まで重複可能）</t>
@@ -7461,7 +7604,6 @@
   </si>
   <si>
     <t>淬羽サイレンス</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>無言の支え:攻撃範囲内の味方全員に10%の加護を付与する。味方のHPが低いほど効果が強まる（最大効果値：HPが最大値の30%未満時、24%の加護を獲得）</t>
@@ -7515,7 +7657,6 @@
   </si>
   <si>
     <t>滌火ジェシカ</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>オールラウンド:「機動防盾」を配置可能（配置から50秒後強制退場）、機動防盾は滌火ジェシカの隣接4マスにのみ配置できる。機動防盾配置中、滌火ジェシカの向きが盾の位置になり、自身とその背後1マスにいる味方ユニットの防御力+15%</t>
@@ -7642,6 +7783,135 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="14">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>4</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>5</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>6</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>7</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>8</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>9</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>10</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>11</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>12</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>13</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
+  <rel r:id="rId5"/>
+  <rel r:id="rId6"/>
+  <rel r:id="rId7"/>
+  <rel r:id="rId8"/>
+  <rel r:id="rId9"/>
+  <rel r:id="rId10"/>
+  <rel r:id="rId11"/>
+  <rel r:id="rId12"/>
+  <rel r:id="rId13"/>
+  <rel r:id="rId14"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7963,8 +8233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A297" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A307" sqref="A307"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -8045,7 +8315,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" ht="15.75">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -8079,9 +8349,11 @@
       <c r="K3" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L3" s="4" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18.75">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -8115,8 +8387,11 @@
       <c r="K4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="L4" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18.75">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -8150,8 +8425,11 @@
       <c r="K5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="L5" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18.75">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -8185,8 +8463,11 @@
       <c r="K6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="L6" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18.75">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -8220,8 +8501,11 @@
       <c r="K7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="L7" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="18.75">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -8255,8 +8539,11 @@
       <c r="K8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="L8" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="18.75">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -8290,8 +8577,11 @@
       <c r="K9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="L9" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="18.75">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -8325,8 +8615,11 @@
       <c r="K10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="L10" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="18.75">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -8360,8 +8653,11 @@
       <c r="K11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="L11" t="e" vm="9">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="18.75">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -8395,8 +8691,11 @@
       <c r="K12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="L12" t="e" vm="10">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18.75">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -8430,8 +8729,11 @@
       <c r="K13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="L13" t="e" vm="11">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="18.75">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -8465,8 +8767,11 @@
       <c r="K14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="L14" t="e" vm="12">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="18.75">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -8500,8 +8805,11 @@
       <c r="K15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="L15" t="e" vm="13">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18.75">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -8535,8 +8843,11 @@
       <c r="K16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="L16" t="e" vm="14">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="18.75">
       <c r="A17" t="s">
         <v>92</v>
       </c>
@@ -8571,7 +8882,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" ht="18.75">
       <c r="A18" t="s">
         <v>100</v>
       </c>
@@ -8606,7 +8917,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" ht="18.75">
       <c r="A19" t="s">
         <v>108</v>
       </c>
@@ -8641,7 +8952,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" ht="18.75">
       <c r="A20" t="s">
         <v>115</v>
       </c>
@@ -8679,7 +8990,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" ht="18.75">
       <c r="A21" t="s">
         <v>122</v>
       </c>
@@ -8714,7 +9025,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" ht="18.75">
       <c r="A22" t="s">
         <v>127</v>
       </c>
@@ -8749,7 +9060,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" ht="18.75">
       <c r="A23" t="s">
         <v>133</v>
       </c>
@@ -8784,7 +9095,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" ht="18.75">
       <c r="A24" t="s">
         <v>140</v>
       </c>
@@ -8819,7 +9130,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" ht="18.75">
       <c r="A25" t="s">
         <v>146</v>
       </c>
@@ -8854,7 +9165,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" ht="18.75">
       <c r="A26" t="s">
         <v>152</v>
       </c>
@@ -8889,7 +9200,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" ht="18.75">
       <c r="A27" t="s">
         <v>158</v>
       </c>
@@ -8924,7 +9235,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" ht="18.75">
       <c r="A28" t="s">
         <v>164</v>
       </c>
@@ -8959,7 +9270,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" ht="18.75">
       <c r="A29" t="s">
         <v>168</v>
       </c>
@@ -8994,7 +9305,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" ht="18.75">
       <c r="A30" t="s">
         <v>174</v>
       </c>
@@ -9029,7 +9340,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" ht="18.75">
       <c r="A31" t="s">
         <v>180</v>
       </c>
@@ -9064,7 +9375,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" ht="18.75">
       <c r="A32" t="s">
         <v>184</v>
       </c>
@@ -9099,7 +9410,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" ht="18.75">
       <c r="A33" t="s">
         <v>190</v>
       </c>
@@ -9134,7 +9445,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" ht="18.75">
       <c r="A34" t="s">
         <v>195</v>
       </c>
@@ -9169,7 +9480,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" ht="18.75">
       <c r="A35" t="s">
         <v>200</v>
       </c>
@@ -9204,7 +9515,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" ht="18.75">
       <c r="A36" t="s">
         <v>207</v>
       </c>
@@ -9239,7 +9550,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" ht="18.75">
       <c r="A37" t="s">
         <v>212</v>
       </c>
@@ -9274,7 +9585,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" ht="18.75">
       <c r="A38" t="s">
         <v>219</v>
       </c>
@@ -9309,7 +9620,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" ht="18.75">
       <c r="A39" t="s">
         <v>222</v>
       </c>
@@ -9344,7 +9655,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" ht="18.75">
       <c r="A40" t="s">
         <v>227</v>
       </c>
@@ -9379,7 +9690,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" ht="18.75">
       <c r="A41" t="s">
         <v>232</v>
       </c>
@@ -9414,7 +9725,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" ht="18.75">
       <c r="A42" t="s">
         <v>237</v>
       </c>
@@ -9449,7 +9760,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" ht="18.75">
       <c r="A43" t="s">
         <v>242</v>
       </c>
@@ -9484,7 +9795,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" ht="18.75">
       <c r="A44" t="s">
         <v>247</v>
       </c>
@@ -9519,7 +9830,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" ht="18.75">
       <c r="A45" t="s">
         <v>251</v>
       </c>
@@ -9554,7 +9865,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" ht="18.75">
       <c r="A46" t="s">
         <v>259</v>
       </c>
@@ -9589,7 +9900,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" ht="18.75">
       <c r="A47" t="s">
         <v>266</v>
       </c>
@@ -9624,7 +9935,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" ht="18.75">
       <c r="A48" t="s">
         <v>270</v>
       </c>
@@ -9659,7 +9970,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" ht="18.75">
       <c r="A49" t="s">
         <v>274</v>
       </c>
@@ -9694,7 +10005,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" ht="18.75">
       <c r="A50" t="s">
         <v>280</v>
       </c>
@@ -9729,7 +10040,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" ht="18.75">
       <c r="A51" t="s">
         <v>285</v>
       </c>
@@ -9764,7 +10075,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" ht="18.75">
       <c r="A52" t="s">
         <v>288</v>
       </c>
@@ -9799,7 +10110,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" ht="18.75">
       <c r="A53" t="s">
         <v>295</v>
       </c>
@@ -9834,7 +10145,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" ht="18.75">
       <c r="A54" t="s">
         <v>301</v>
       </c>
@@ -9869,7 +10180,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" ht="18.75">
       <c r="A55" t="s">
         <v>305</v>
       </c>
@@ -9904,7 +10215,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" ht="18.75">
       <c r="A56" t="s">
         <v>312</v>
       </c>
@@ -9939,7 +10250,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" ht="18.75">
       <c r="A57" t="s">
         <v>318</v>
       </c>
@@ -9974,7 +10285,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" ht="18.75">
       <c r="A58" t="s">
         <v>323</v>
       </c>
@@ -10009,7 +10320,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" ht="18.75">
       <c r="A59" t="s">
         <v>330</v>
       </c>
@@ -10044,7 +10355,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" ht="18.75">
       <c r="A60" t="s">
         <v>335</v>
       </c>
@@ -10079,7 +10390,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" ht="18.75">
       <c r="A61" t="s">
         <v>341</v>
       </c>
@@ -10114,7 +10425,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" ht="18.75">
       <c r="A62" t="s">
         <v>347</v>
       </c>
@@ -10149,7 +10460,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" ht="18.75">
       <c r="A63" t="s">
         <v>352</v>
       </c>
@@ -10184,7 +10495,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" ht="18.75">
       <c r="A64" t="s">
         <v>357</v>
       </c>
@@ -10219,7 +10530,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" ht="18.75">
       <c r="A65" t="s">
         <v>361</v>
       </c>
@@ -10254,7 +10565,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" ht="18.75">
       <c r="A66" t="s">
         <v>366</v>
       </c>
@@ -10289,7 +10600,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" ht="18.75">
       <c r="A67" t="s">
         <v>371</v>
       </c>
@@ -10324,7 +10635,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" ht="18.75">
       <c r="A68" t="s">
         <v>375</v>
       </c>
@@ -10359,7 +10670,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" ht="18.75">
       <c r="A69" t="s">
         <v>379</v>
       </c>
@@ -10394,7 +10705,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" ht="18.75">
       <c r="A70" t="s">
         <v>385</v>
       </c>
@@ -10429,7 +10740,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" ht="18.75">
       <c r="A71" t="s">
         <v>391</v>
       </c>
@@ -10464,7 +10775,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" ht="18.75">
       <c r="A72" t="s">
         <v>398</v>
       </c>
@@ -10499,7 +10810,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" ht="18.75">
       <c r="A73" t="s">
         <v>403</v>
       </c>
@@ -10534,7 +10845,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" ht="18.75">
       <c r="A74" t="s">
         <v>408</v>
       </c>
@@ -10569,7 +10880,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" ht="18.75">
       <c r="A75" t="s">
         <v>413</v>
       </c>
@@ -10604,7 +10915,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" ht="18.75">
       <c r="A76" t="s">
         <v>418</v>
       </c>
@@ -10639,7 +10950,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" ht="18.75">
       <c r="A77" t="s">
         <v>422</v>
       </c>
@@ -10674,7 +10985,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" ht="18.75">
       <c r="A78" t="s">
         <v>426</v>
       </c>
@@ -10709,7 +11020,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" ht="18.75">
       <c r="A79" t="s">
         <v>430</v>
       </c>
@@ -10744,7 +11055,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" ht="18.75">
       <c r="A80" t="s">
         <v>435</v>
       </c>
@@ -10779,7 +11090,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" ht="18.75">
       <c r="A81" t="s">
         <v>438</v>
       </c>
@@ -10814,7 +11125,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" ht="18.75">
       <c r="A82" t="s">
         <v>445</v>
       </c>
@@ -10849,7 +11160,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" ht="18.75">
       <c r="A83" t="s">
         <v>449</v>
       </c>
@@ -10884,7 +11195,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" ht="18.75">
       <c r="A84" t="s">
         <v>452</v>
       </c>
@@ -10919,7 +11230,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" ht="18.75">
       <c r="A85" t="s">
         <v>456</v>
       </c>
@@ -10954,7 +11265,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" ht="18.75">
       <c r="A86" t="s">
         <v>459</v>
       </c>
@@ -10989,7 +11300,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" ht="18.75">
       <c r="A87" t="s">
         <v>463</v>
       </c>
@@ -11024,7 +11335,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" ht="18.75">
       <c r="A88" t="s">
         <v>467</v>
       </c>
@@ -11059,7 +11370,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" ht="18.75">
       <c r="A89" t="s">
         <v>471</v>
       </c>
@@ -11094,7 +11405,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" ht="18.75">
       <c r="A90" t="s">
         <v>475</v>
       </c>
@@ -11129,7 +11440,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" ht="18.75">
       <c r="A91" t="s">
         <v>480</v>
       </c>
@@ -11164,7 +11475,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" ht="18.75">
       <c r="A92" t="s">
         <v>484</v>
       </c>
@@ -11199,7 +11510,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" ht="18.75">
       <c r="A93" t="s">
         <v>488</v>
       </c>
@@ -11234,7 +11545,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" ht="18.75">
       <c r="A94" t="s">
         <v>495</v>
       </c>
@@ -11269,7 +11580,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" ht="18.75">
       <c r="A95" t="s">
         <v>499</v>
       </c>
@@ -11304,7 +11615,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" ht="18.75">
       <c r="A96" t="s">
         <v>504</v>
       </c>
@@ -11339,7 +11650,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" ht="18.75">
       <c r="A97" t="s">
         <v>507</v>
       </c>
@@ -11374,7 +11685,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" ht="18.75">
       <c r="A98" t="s">
         <v>511</v>
       </c>
@@ -11409,7 +11720,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" ht="18.75">
       <c r="A99" t="s">
         <v>515</v>
       </c>
@@ -11444,7 +11755,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" ht="18.75">
       <c r="A100" t="s">
         <v>519</v>
       </c>
@@ -11479,7 +11790,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" ht="18.75">
       <c r="A101" t="s">
         <v>523</v>
       </c>
@@ -11514,7 +11825,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" ht="18.75">
       <c r="A102" t="s">
         <v>527</v>
       </c>
@@ -11549,7 +11860,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" ht="18.75">
       <c r="A103" t="s">
         <v>531</v>
       </c>
@@ -11584,7 +11895,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" ht="18.75">
       <c r="A104" t="s">
         <v>535</v>
       </c>
@@ -11619,7 +11930,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" ht="18.75">
       <c r="A105" t="s">
         <v>539</v>
       </c>
@@ -11654,7 +11965,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" ht="18.75">
       <c r="A106" t="s">
         <v>545</v>
       </c>
@@ -11689,7 +12000,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" ht="18.75">
       <c r="A107" t="s">
         <v>549</v>
       </c>
@@ -11724,7 +12035,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" ht="18.75">
       <c r="A108" t="s">
         <v>553</v>
       </c>
@@ -11759,7 +12070,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" ht="18.75">
       <c r="A109" t="s">
         <v>558</v>
       </c>
@@ -11794,7 +12105,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" ht="18.75">
       <c r="A110" t="s">
         <v>564</v>
       </c>
@@ -11829,7 +12140,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" ht="18.75">
       <c r="A111" t="s">
         <v>570</v>
       </c>
@@ -11864,7 +12175,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" ht="18.75">
       <c r="A112" t="s">
         <v>576</v>
       </c>
@@ -11899,7 +12210,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" ht="18.75">
       <c r="A113" t="s">
         <v>580</v>
       </c>
@@ -11934,7 +12245,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" ht="18.75">
       <c r="A114" t="s">
         <v>584</v>
       </c>
@@ -11969,7 +12280,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" ht="18.75">
       <c r="A115" t="s">
         <v>588</v>
       </c>
@@ -12004,7 +12315,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" ht="18.75">
       <c r="A116" t="s">
         <v>594</v>
       </c>
@@ -12039,7 +12350,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" ht="18.75">
       <c r="A117" t="s">
         <v>598</v>
       </c>
@@ -12074,7 +12385,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" ht="18.75">
       <c r="A118" t="s">
         <v>604</v>
       </c>
@@ -12109,7 +12420,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" ht="18.75">
       <c r="A119" t="s">
         <v>607</v>
       </c>
@@ -12144,7 +12455,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" ht="18.75">
       <c r="A120" t="s">
         <v>613</v>
       </c>
@@ -12179,7 +12490,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" ht="18.75">
       <c r="A121" t="s">
         <v>616</v>
       </c>
@@ -12214,7 +12525,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" ht="18.75">
       <c r="A122" t="s">
         <v>623</v>
       </c>
@@ -12249,7 +12560,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" ht="18.75">
       <c r="A123" t="s">
         <v>628</v>
       </c>
@@ -12284,7 +12595,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" ht="18.75">
       <c r="A124" t="s">
         <v>633</v>
       </c>
@@ -12319,7 +12630,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" ht="18.75">
       <c r="A125" t="s">
         <v>637</v>
       </c>
@@ -12354,7 +12665,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" ht="18.75">
       <c r="A126" t="s">
         <v>640</v>
       </c>
@@ -12389,7 +12700,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" ht="18.75">
       <c r="A127" t="s">
         <v>643</v>
       </c>
@@ -12424,7 +12735,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" ht="18.75">
       <c r="A128" t="s">
         <v>647</v>
       </c>
@@ -12459,7 +12770,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" ht="18.75">
       <c r="A129" t="s">
         <v>651</v>
       </c>
@@ -12494,7 +12805,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" ht="18.75">
       <c r="A130" t="s">
         <v>658</v>
       </c>
@@ -12529,7 +12840,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" ht="18.75">
       <c r="A131" t="s">
         <v>660</v>
       </c>
@@ -12564,7 +12875,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" ht="18.75">
       <c r="A132" t="s">
         <v>664</v>
       </c>
@@ -12599,7 +12910,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" ht="18.75">
       <c r="A133" t="s">
         <v>669</v>
       </c>
@@ -12634,7 +12945,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" ht="18.75">
       <c r="A134" t="s">
         <v>674</v>
       </c>
@@ -12669,7 +12980,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" ht="18.75">
       <c r="A135" t="s">
         <v>681</v>
       </c>
@@ -12704,7 +13015,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" ht="18.75">
       <c r="A136" t="s">
         <v>684</v>
       </c>
@@ -12739,7 +13050,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" ht="18.75">
       <c r="A137" t="s">
         <v>688</v>
       </c>
@@ -12774,7 +13085,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" ht="18.75">
       <c r="A138" t="s">
         <v>692</v>
       </c>
@@ -12809,7 +13120,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" ht="18.75">
       <c r="A139" t="s">
         <v>698</v>
       </c>
@@ -12844,7 +13155,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" ht="18.75">
       <c r="A140" t="s">
         <v>701</v>
       </c>
@@ -12879,7 +13190,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" ht="18.75">
       <c r="A141" t="s">
         <v>704</v>
       </c>
@@ -12914,7 +13225,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" ht="18.75">
       <c r="A142" t="s">
         <v>710</v>
       </c>
@@ -12949,7 +13260,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" ht="18.75">
       <c r="A143" t="s">
         <v>714</v>
       </c>
@@ -12984,7 +13295,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" ht="18.75">
       <c r="A144" t="s">
         <v>718</v>
       </c>
@@ -13019,7 +13330,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" ht="18.75">
       <c r="A145" t="s">
         <v>724</v>
       </c>
@@ -13054,7 +13365,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" ht="18.75">
       <c r="A146" t="s">
         <v>727</v>
       </c>
@@ -13089,7 +13400,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" ht="18.75">
       <c r="A147" t="s">
         <v>733</v>
       </c>
@@ -13124,7 +13435,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" ht="18.75">
       <c r="A148" t="s">
         <v>737</v>
       </c>
@@ -13159,7 +13470,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" ht="18.75">
       <c r="A149" t="s">
         <v>741</v>
       </c>
@@ -13194,7 +13505,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" ht="18.75">
       <c r="A150" t="s">
         <v>744</v>
       </c>
@@ -13229,7 +13540,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" ht="18.75">
       <c r="A151" t="s">
         <v>747</v>
       </c>
@@ -13264,7 +13575,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" ht="18.75">
       <c r="A152" t="s">
         <v>753</v>
       </c>
@@ -13299,7 +13610,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" ht="18.75">
       <c r="A153" t="s">
         <v>758</v>
       </c>
@@ -13334,7 +13645,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" ht="18.75">
       <c r="A154" t="s">
         <v>762</v>
       </c>
@@ -13369,7 +13680,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" ht="18.75">
       <c r="A155" t="s">
         <v>766</v>
       </c>
@@ -13404,7 +13715,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" ht="18.75">
       <c r="A156" t="s">
         <v>770</v>
       </c>
@@ -13439,7 +13750,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" ht="18.75">
       <c r="A157" t="s">
         <v>776</v>
       </c>
@@ -13474,7 +13785,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" ht="18.75">
       <c r="A158" t="s">
         <v>780</v>
       </c>
@@ -13509,7 +13820,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" ht="18.75">
       <c r="A159" t="s">
         <v>785</v>
       </c>
@@ -13544,7 +13855,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" ht="18.75">
       <c r="A160" t="s">
         <v>790</v>
       </c>
@@ -13579,7 +13890,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" ht="18.75">
       <c r="A161" t="s">
         <v>796</v>
       </c>
@@ -13614,7 +13925,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" ht="18.75">
       <c r="A162" t="s">
         <v>802</v>
       </c>
@@ -13649,7 +13960,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" ht="18.75">
       <c r="A163" t="s">
         <v>805</v>
       </c>
@@ -13684,7 +13995,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" ht="18.75">
       <c r="A164" t="s">
         <v>811</v>
       </c>
@@ -13719,7 +14030,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" ht="18.75">
       <c r="A165" t="s">
         <v>815</v>
       </c>
@@ -13754,7 +14065,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" ht="18.75">
       <c r="A166" t="s">
         <v>819</v>
       </c>
@@ -13789,7 +14100,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" ht="18.75">
       <c r="A167" t="s">
         <v>824</v>
       </c>
@@ -13824,7 +14135,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" ht="18.75">
       <c r="A168" t="s">
         <v>829</v>
       </c>
@@ -13859,7 +14170,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" ht="18.75">
       <c r="A169" t="s">
         <v>834</v>
       </c>
@@ -13894,7 +14205,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" ht="18.75">
       <c r="A170" t="s">
         <v>839</v>
       </c>
@@ -13929,7 +14240,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" ht="18.75">
       <c r="A171" t="s">
         <v>843</v>
       </c>
@@ -13964,7 +14275,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" ht="18.75">
       <c r="A172" t="s">
         <v>846</v>
       </c>
@@ -13999,7 +14310,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" ht="18.75">
       <c r="A173" t="s">
         <v>851</v>
       </c>
@@ -14034,7 +14345,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" ht="18.75">
       <c r="A174" t="s">
         <v>855</v>
       </c>
@@ -14069,7 +14380,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" ht="18.75">
       <c r="A175" t="s">
         <v>859</v>
       </c>
@@ -14104,7 +14415,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" ht="18.75">
       <c r="A176" t="s">
         <v>861</v>
       </c>
@@ -14139,7 +14450,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" ht="18.75">
       <c r="A177" t="s">
         <v>864</v>
       </c>
@@ -14174,7 +14485,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" ht="18.75">
       <c r="A178" t="s">
         <v>868</v>
       </c>
@@ -14209,7 +14520,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" ht="18.75">
       <c r="A179" t="s">
         <v>872</v>
       </c>
@@ -14244,7 +14555,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" ht="18.75">
       <c r="A180" t="s">
         <v>876</v>
       </c>
@@ -14279,7 +14590,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" ht="18.75">
       <c r="A181" t="s">
         <v>882</v>
       </c>
@@ -14314,7 +14625,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" ht="18.75">
       <c r="A182" t="s">
         <v>888</v>
       </c>
@@ -14349,7 +14660,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" ht="18.75">
       <c r="A183" t="s">
         <v>892</v>
       </c>
@@ -14384,7 +14695,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" ht="18.75">
       <c r="A184" t="s">
         <v>898</v>
       </c>
@@ -14419,7 +14730,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" ht="18.75">
       <c r="A185" t="s">
         <v>900</v>
       </c>
@@ -14454,7 +14765,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" ht="18.75">
       <c r="A186" t="s">
         <v>906</v>
       </c>
@@ -14489,7 +14800,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" ht="18.75">
       <c r="A187" t="s">
         <v>911</v>
       </c>
@@ -14524,7 +14835,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" ht="18.75">
       <c r="A188" t="s">
         <v>914</v>
       </c>
@@ -14559,7 +14870,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" ht="18.75">
       <c r="A189" t="s">
         <v>919</v>
       </c>
@@ -14594,7 +14905,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" ht="18.75">
       <c r="A190" t="s">
         <v>923</v>
       </c>
@@ -14629,7 +14940,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" ht="18.75">
       <c r="A191" t="s">
         <v>926</v>
       </c>
@@ -14664,7 +14975,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" ht="18.75">
       <c r="A192" t="s">
         <v>932</v>
       </c>
@@ -14699,7 +15010,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" ht="18.75">
       <c r="A193" t="s">
         <v>936</v>
       </c>
@@ -14734,7 +15045,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" ht="18.75">
       <c r="A194" t="s">
         <v>941</v>
       </c>
@@ -14769,7 +15080,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" ht="18.75">
       <c r="A195" t="s">
         <v>945</v>
       </c>
@@ -14804,7 +15115,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" ht="18.75">
       <c r="A196" t="s">
         <v>951</v>
       </c>
@@ -14839,7 +15150,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" ht="18.75">
       <c r="A197" t="s">
         <v>957</v>
       </c>
@@ -14874,7 +15185,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" ht="18.75">
       <c r="A198" t="s">
         <v>961</v>
       </c>
@@ -14909,7 +15220,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" ht="18.75">
       <c r="A199" t="s">
         <v>964</v>
       </c>
@@ -14944,7 +15255,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" ht="18.75">
       <c r="A200" t="s">
         <v>967</v>
       </c>
@@ -14979,7 +15290,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" ht="18.75">
       <c r="A201" t="s">
         <v>972</v>
       </c>
@@ -15049,7 +15360,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" ht="18.75">
       <c r="A203" t="s">
         <v>981</v>
       </c>
@@ -15084,7 +15395,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" ht="18.75">
       <c r="A204" t="s">
         <v>984</v>
       </c>
@@ -15119,7 +15430,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" ht="18.75">
       <c r="A205" t="s">
         <v>988</v>
       </c>
@@ -15154,7 +15465,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" ht="18.75">
       <c r="A206" t="s">
         <v>992</v>
       </c>
@@ -15189,7 +15500,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" ht="18.75">
       <c r="A207" t="s">
         <v>996</v>
       </c>
@@ -15224,7 +15535,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" ht="18.75">
       <c r="A208" t="s">
         <v>1000</v>
       </c>
@@ -15259,7 +15570,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" ht="18.75">
       <c r="A209" t="s">
         <v>1005</v>
       </c>
@@ -15294,7 +15605,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" ht="18.75">
       <c r="A210" t="s">
         <v>1009</v>
       </c>
@@ -15329,7 +15640,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" ht="18.75">
       <c r="A211" t="s">
         <v>1013</v>
       </c>
@@ -15364,7 +15675,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" ht="18.75">
       <c r="A212" t="s">
         <v>1019</v>
       </c>
@@ -15399,7 +15710,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" ht="18.75">
       <c r="A213" t="s">
         <v>1025</v>
       </c>
@@ -15434,7 +15745,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" ht="18.75">
       <c r="A214" t="s">
         <v>1028</v>
       </c>
@@ -15469,7 +15780,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" ht="18.75">
       <c r="A215" t="s">
         <v>1030</v>
       </c>
@@ -15504,7 +15815,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" ht="18.75">
       <c r="A216" t="s">
         <v>1034</v>
       </c>
@@ -15539,7 +15850,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" ht="18.75">
       <c r="A217" t="s">
         <v>1037</v>
       </c>
@@ -15574,7 +15885,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" ht="18.75">
       <c r="A218" t="s">
         <v>1040</v>
       </c>
@@ -15609,7 +15920,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" ht="18.75">
       <c r="A219" t="s">
         <v>1044</v>
       </c>
@@ -15644,7 +15955,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" ht="18.75">
       <c r="A220" t="s">
         <v>1049</v>
       </c>
@@ -15679,7 +15990,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" ht="18.75">
       <c r="A221" t="s">
         <v>1052</v>
       </c>
@@ -15714,7 +16025,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" ht="18.75">
       <c r="A222" t="s">
         <v>1056</v>
       </c>
@@ -15749,7 +16060,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" ht="18.75">
       <c r="A223" t="s">
         <v>1058</v>
       </c>
@@ -15784,7 +16095,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" ht="18.75">
       <c r="A224" t="s">
         <v>1061</v>
       </c>
@@ -15819,7 +16130,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" ht="18.75">
       <c r="A225" t="s">
         <v>1065</v>
       </c>
@@ -15854,7 +16165,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:11" ht="18.75">
       <c r="A226" t="s">
         <v>1070</v>
       </c>
@@ -15889,7 +16200,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:11" ht="18.75">
       <c r="A227" t="s">
         <v>1076</v>
       </c>
@@ -15959,7 +16270,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" ht="18.75">
       <c r="A229" t="s">
         <v>1086</v>
       </c>
@@ -15994,7 +16305,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" ht="18.75">
       <c r="A230" t="s">
         <v>1090</v>
       </c>
@@ -16029,7 +16340,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" ht="18.75">
       <c r="A231" t="s">
         <v>1094</v>
       </c>
@@ -16099,7 +16410,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:11" ht="18.75">
       <c r="A233" t="s">
         <v>1101</v>
       </c>
@@ -16134,7 +16445,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:11" ht="18.75">
       <c r="A234" t="s">
         <v>1104</v>
       </c>
@@ -16169,7 +16480,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" ht="18.75">
       <c r="A235" t="s">
         <v>1110</v>
       </c>
@@ -16204,7 +16515,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" ht="18.75">
       <c r="A236" t="s">
         <v>1114</v>
       </c>
@@ -16239,7 +16550,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" ht="18.75">
       <c r="A237" t="s">
         <v>1120</v>
       </c>
@@ -16274,7 +16585,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" ht="18.75">
       <c r="A238" t="s">
         <v>1124</v>
       </c>
@@ -16309,7 +16620,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" ht="18.75">
       <c r="A239" t="s">
         <v>1130</v>
       </c>
@@ -16344,7 +16655,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" ht="18.75">
       <c r="A240" t="s">
         <v>1136</v>
       </c>
@@ -16379,7 +16690,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" ht="18.75">
       <c r="A241" t="s">
         <v>1140</v>
       </c>
@@ -16414,7 +16725,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" ht="18.75">
       <c r="A242" t="s">
         <v>1142</v>
       </c>
@@ -16449,7 +16760,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" ht="18.75">
       <c r="A243" t="s">
         <v>1148</v>
       </c>
@@ -16484,7 +16795,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" ht="18.75">
       <c r="A244" t="s">
         <v>1154</v>
       </c>
@@ -16519,7 +16830,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" ht="18.75">
       <c r="A245" t="s">
         <v>1158</v>
       </c>
@@ -16554,7 +16865,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" ht="18.75">
       <c r="A246" t="s">
         <v>1164</v>
       </c>
@@ -16589,7 +16900,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" ht="18.75">
       <c r="A247" t="s">
         <v>1170</v>
       </c>
@@ -16624,7 +16935,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" ht="18.75">
       <c r="A248" t="s">
         <v>1174</v>
       </c>
@@ -16659,7 +16970,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" ht="18.75">
       <c r="A249" t="s">
         <v>1178</v>
       </c>
@@ -16694,7 +17005,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" ht="18.75">
       <c r="A250" t="s">
         <v>1183</v>
       </c>
@@ -16729,7 +17040,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:11" ht="18.75">
       <c r="A251" t="s">
         <v>1187</v>
       </c>
@@ -16764,7 +17075,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" ht="18.75">
       <c r="A252" t="s">
         <v>1191</v>
       </c>
@@ -16799,7 +17110,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:11" ht="18.75">
       <c r="A253" t="s">
         <v>1197</v>
       </c>
@@ -16834,7 +17145,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" ht="18.75">
       <c r="A254" t="s">
         <v>1199</v>
       </c>
@@ -16869,7 +17180,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" ht="18.75">
       <c r="A255" t="s">
         <v>1202</v>
       </c>
@@ -16904,7 +17215,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" ht="18.75">
       <c r="A256" t="s">
         <v>1208</v>
       </c>
@@ -16939,7 +17250,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" ht="18.75">
       <c r="A257" t="s">
         <v>1212</v>
       </c>
@@ -16974,7 +17285,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:11" ht="18.75">
       <c r="A258" t="s">
         <v>1216</v>
       </c>
@@ -17009,7 +17320,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" ht="18.75">
       <c r="A259" t="s">
         <v>1220</v>
       </c>
@@ -17044,7 +17355,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" ht="18.75">
       <c r="A260" t="s">
         <v>1226</v>
       </c>
@@ -17079,7 +17390,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:11" ht="18.75">
       <c r="A261" t="s">
         <v>1230</v>
       </c>
@@ -17114,7 +17425,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:11" ht="18.75">
       <c r="A262" t="s">
         <v>1234</v>
       </c>
@@ -17149,7 +17460,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:11" ht="18.75">
       <c r="A263" t="s">
         <v>1238</v>
       </c>
@@ -17184,7 +17495,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:11" ht="18.75">
       <c r="A264" t="s">
         <v>1242</v>
       </c>
@@ -17219,7 +17530,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" ht="18.75">
       <c r="A265" t="s">
         <v>1246</v>
       </c>
@@ -17254,7 +17565,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" ht="18.75">
       <c r="A266" t="s">
         <v>1247</v>
       </c>
@@ -17289,7 +17600,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" ht="18.75">
       <c r="A267" t="s">
         <v>1252</v>
       </c>
@@ -17324,7 +17635,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" ht="18.75">
       <c r="A268" t="s">
         <v>1257</v>
       </c>
@@ -17359,7 +17670,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:11" ht="18.75">
       <c r="A269" t="s">
         <v>1259</v>
       </c>
@@ -17394,7 +17705,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" ht="18.75">
       <c r="A270" t="s">
         <v>1265</v>
       </c>
@@ -17429,7 +17740,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:11" ht="18.75">
       <c r="A271" t="s">
         <v>1269</v>
       </c>
@@ -17464,7 +17775,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:11" ht="18.75">
       <c r="A272" t="s">
         <v>1272</v>
       </c>
@@ -17499,7 +17810,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:11" ht="18.75">
       <c r="A273" t="s">
         <v>1276</v>
       </c>
@@ -17534,7 +17845,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:11" ht="18.75">
       <c r="A274" t="s">
         <v>1282</v>
       </c>
@@ -17569,7 +17880,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:11" ht="18.75">
       <c r="A275" t="s">
         <v>1285</v>
       </c>
@@ -17604,7 +17915,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:11" ht="18.75">
       <c r="A276" t="s">
         <v>1291</v>
       </c>
@@ -17639,7 +17950,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:11" ht="18.75">
       <c r="A277" t="s">
         <v>1296</v>
       </c>
@@ -17674,7 +17985,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="278" spans="1:11">
+    <row r="278" spans="1:11" ht="18.75">
       <c r="A278" t="s">
         <v>1302</v>
       </c>
@@ -17709,7 +18020,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:11" ht="18.75">
       <c r="A279" t="s">
         <v>1308</v>
       </c>
@@ -17744,7 +18055,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" spans="1:11" ht="18.75">
       <c r="A280" t="s">
         <v>1312</v>
       </c>
@@ -17779,7 +18090,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="281" spans="1:11">
+    <row r="281" spans="1:11" ht="18.75">
       <c r="A281" t="s">
         <v>1315</v>
       </c>
@@ -17814,7 +18125,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" spans="1:11" ht="18.75">
       <c r="A282" t="s">
         <v>1320</v>
       </c>
@@ -17849,7 +18160,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:11" ht="18.75">
       <c r="A283" t="s">
         <v>1323</v>
       </c>
@@ -17884,7 +18195,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="284" spans="1:11">
+    <row r="284" spans="1:11" ht="18.75">
       <c r="A284" t="s">
         <v>1328</v>
       </c>
@@ -17919,7 +18230,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="285" spans="1:11">
+    <row r="285" spans="1:11" ht="18.75">
       <c r="A285" t="s">
         <v>1332</v>
       </c>
@@ -17954,7 +18265,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" spans="1:11" ht="18.75">
       <c r="A286" t="s">
         <v>1334</v>
       </c>
@@ -17989,7 +18300,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="287" spans="1:11">
+    <row r="287" spans="1:11" ht="18.75">
       <c r="A287" t="s">
         <v>1338</v>
       </c>
@@ -18024,7 +18335,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:11" ht="18.75">
       <c r="A288" t="s">
         <v>1343</v>
       </c>
@@ -18059,7 +18370,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:11" ht="18.75">
       <c r="A289" t="s">
         <v>1349</v>
       </c>
@@ -18094,7 +18405,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="290" spans="1:11">
+    <row r="290" spans="1:11" ht="18.75">
       <c r="A290" t="s">
         <v>1352</v>
       </c>
@@ -18129,7 +18440,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:11" ht="18.75">
       <c r="A291" t="s">
         <v>1356</v>
       </c>
@@ -18164,7 +18475,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:11" ht="18.75">
       <c r="A292" t="s">
         <v>1360</v>
       </c>
@@ -18199,7 +18510,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:11" ht="18.75">
       <c r="A293" t="s">
         <v>1365</v>
       </c>
@@ -18234,7 +18545,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:11" ht="18.75">
       <c r="A294" t="s">
         <v>1369</v>
       </c>
@@ -18269,7 +18580,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:11" ht="18.75">
       <c r="A295" t="s">
         <v>1373</v>
       </c>
@@ -18304,7 +18615,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:11" ht="18.75">
       <c r="A296" t="s">
         <v>1377</v>
       </c>
@@ -18339,7 +18650,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" spans="1:11" ht="18.75">
       <c r="A297" t="s">
         <v>1382</v>
       </c>
@@ -18374,7 +18685,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="298" spans="1:11">
+    <row r="298" spans="1:11" ht="18.75">
       <c r="A298" t="s">
         <v>1386</v>
       </c>
@@ -18409,7 +18720,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" spans="1:11" ht="18.75">
       <c r="A299" t="s">
         <v>1392</v>
       </c>
@@ -18479,7 +18790,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="301" spans="1:11">
+    <row r="301" spans="1:11" ht="18.75">
       <c r="A301" t="s">
         <v>1402</v>
       </c>
@@ -18514,7 +18825,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="302" spans="1:11">
+    <row r="302" spans="1:11" ht="18.75">
       <c r="A302" t="s">
         <v>1408</v>
       </c>
@@ -18549,7 +18860,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" spans="1:11" ht="18.75">
       <c r="A303" t="s">
         <v>1411</v>
       </c>
@@ -18584,7 +18895,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:11" ht="18.75">
       <c r="A304" t="s">
         <v>1417</v>
       </c>
@@ -18619,7 +18930,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="305" spans="1:11">
+    <row r="305" spans="1:11" ht="18.75">
       <c r="A305" t="s">
         <v>1420</v>
       </c>
@@ -18654,7 +18965,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:11" ht="18.75">
       <c r="A306" t="s">
         <v>1427</v>
       </c>
@@ -18689,7 +19000,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:11" ht="18.75">
       <c r="A307" t="s">
         <v>1430</v>
       </c>
@@ -18724,7 +19035,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" spans="1:11" ht="18.75">
       <c r="A308" t="s">
         <v>1436</v>
       </c>
@@ -18759,7 +19070,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="309" spans="1:11">
+    <row r="309" spans="1:11" ht="18.75">
       <c r="A309" t="s">
         <v>1442</v>
       </c>
@@ -18794,7 +19105,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" spans="1:11" ht="18.75">
       <c r="A310" t="s">
         <v>1448</v>
       </c>
@@ -18829,7 +19140,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="311" spans="1:11">
+    <row r="311" spans="1:11" ht="18.75">
       <c r="A311" t="s">
         <v>1452</v>
       </c>
@@ -18864,7 +19175,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="312" spans="1:11">
+    <row r="312" spans="1:11" ht="18.75">
       <c r="A312" t="s">
         <v>1458</v>
       </c>
@@ -18899,7 +19210,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="313" spans="1:11">
+    <row r="313" spans="1:11" ht="18.75">
       <c r="A313" t="s">
         <v>1464</v>
       </c>
@@ -19168,6 +19479,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="764d99e3-727d-4c04-a882-3d67ee778ec9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -19176,22 +19495,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="764d99e3-727d-4c04-a882-3d67ee778ec9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06009290-4AE4-4D2B-8BCD-2F86505A9B1A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64AE0CA6-5C4D-445A-8696-F7C08960892E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E00131F9-D1CF-4A02-9977-325734C9B1FA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E00131F9-D1CF-4A02-9977-325734C9B1FA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64AE0CA6-5C4D-445A-8696-F7C08960892E}"/>
 </file>